--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do.treas.gov\dfsres\isilon\Homeshare3\BerrocalF\XenProfile\Desktop\SLFRF P&amp;E Quarter 2 Bulk Files\UpdateTemplates.6.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45AC3600-04F0-411F-AC37-F27F083CDE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{45AC3600-04F0-411F-AC37-F27F083CDE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F71495D-05AE-413D-8DD3-C25696C0D4F7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="90" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23805" yWindow="7680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,12 +284,6 @@
 "Other (please specify)"</t>
   </si>
   <si>
-    <t>Q2_2022_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q2_2022_Expenditures__c</t>
-  </si>
-  <si>
     <t>The amount of the adopted budget  for this project. 
 Currency field.
 DO NOT include a "$" sign or commas "," when entering Amounts. 
@@ -362,6 +356,12 @@
   </si>
   <si>
     <t>Version: 2022.06.21</t>
+  </si>
+  <si>
+    <t>Q3_2022_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q3_2022_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -498,21 +498,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -520,32 +517,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,18 +758,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="35.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="35.5" style="10" customWidth="1"/>
-    <col min="8" max="15" width="35.5" style="3" customWidth="1"/>
-    <col min="16" max="17" width="35.5" style="10" customWidth="1"/>
-    <col min="18" max="18" width="35.5" style="3" customWidth="1"/>
+    <col min="2" max="18" width="35.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="29" style="3" customWidth="1"/>
     <col min="20" max="20" width="25.125" style="3" customWidth="1"/>
     <col min="21" max="23" width="25.625" style="3" customWidth="1"/>
@@ -799,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -858,10 +834,10 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="246.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -909,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>6</v>
@@ -921,10 +897,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>30</v>
@@ -932,13 +908,13 @@
       <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="4" t="s">
         <v>46</v>
       </c>
       <c r="R4" s="4" t="s">
@@ -950,13 +926,13 @@
       <c r="T4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="X4" s="2"/>
@@ -1024,13 +1000,13 @@
       <c r="T5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="X5" s="2"/>
@@ -1038,28 +1014,28 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:28" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1074,112 +1050,112 @@
       <c r="L6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:28" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>73</v>
+      <c r="F7" s="7" t="s">
+        <v>71</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>74</v>
+      <c r="G7" s="7" t="s">
+        <v>72</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="K7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="L7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="M7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="O7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="13" t="s">
+      <c r="T7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="15" t="s">
-        <v>70</v>
+      <c r="W7" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1187,12 +1163,12 @@
     </row>
     <row r="8" spans="1:28" ht="55.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1201,7 +1177,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1219,8 +1195,8 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -28996,6 +28972,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -29212,22 +29203,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29244,29 +29245,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{45AC3600-04F0-411F-AC37-F27F083CDE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F71495D-05AE-413D-8DD3-C25696C0D4F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7053BC4C-F085-43E6-9C07-9274024F8F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23805" yWindow="7680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,13 +355,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2022.06.21</t>
+    <t>Q4_2022_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2022_Obligations__c</t>
+    <t>Q4_2022_Expenditures__c</t>
   </si>
   <si>
-    <t>Q3_2022_Expenditures__c</t>
+    <t>Version: 2022.12.13</t>
   </si>
 </sst>
 </file>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -897,10 +897,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>30</v>

--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7053BC4C-F085-43E6-9C07-9274024F8F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08263CB3-E946-4650-8D27-E06C6A5435EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,13 +355,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q4_2022_Obligations__c</t>
+    <t>Q1_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Q4_2022_Expenditures__c</t>
+    <t>Q1_2023_Expenditures__c</t>
   </si>
   <si>
-    <t>Version: 2022.12.13</t>
+    <t>Version: 2023.4.18</t>
   </si>
 </sst>
 </file>
@@ -758,9 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28972,18 +28970,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29204,6 +29202,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -29216,14 +29222,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08263CB3-E946-4650-8D27-E06C6A5435EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837609B-4F6F-4077-B481-00D5256C994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30615" yWindow="-795" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,13 +355,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q1_2023_Obligations__c</t>
+    <t>Q2_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Q1_2023_Expenditures__c</t>
+    <t>Q2_2023_Expenditures__c</t>
   </si>
   <si>
-    <t>Version: 2023.4.18</t>
+    <t>Version: 2023.5.17</t>
   </si>
 </sst>
 </file>
@@ -28970,18 +28970,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29202,14 +29202,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -29222,6 +29214,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\update q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837609B-4F6F-4077-B481-00D5256C994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE16C69-E331-41CB-9C4D-C2619D354496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30615" yWindow="-795" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,13 +355,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q2_2023_Obligations__c</t>
+    <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q2_2023_Expenditures__c</t>
+    <t>Q3_2023_Expenditures__c</t>
   </si>
   <si>
-    <t>Version: 2023.5.17</t>
+    <t>Q3_2023_Obligations__c</t>
   </si>
 </sst>
 </file>
@@ -758,22 +758,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="49.3984375" style="3" customWidth="1"/>
     <col min="2" max="18" width="35.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="29" style="3" customWidth="1"/>
-    <col min="20" max="20" width="25.125" style="3" customWidth="1"/>
-    <col min="21" max="23" width="25.625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="25.09765625" style="3" customWidth="1"/>
+    <col min="21" max="23" width="25.59765625" style="3" customWidth="1"/>
     <col min="24" max="26" width="7.5" style="3" customWidth="1"/>
     <col min="27" max="16384" width="12.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -801,7 +803,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -831,7 +833,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="246.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="246.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -863,7 +865,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -895,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>74</v>
@@ -937,7 +939,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1011,7 +1013,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1085,7 +1087,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:28" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1161,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="55.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="55.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1187,7 +1189,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1215,7 +1217,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1243,7 +1245,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1271,7 +1273,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1299,7 +1301,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1327,7 +1329,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1355,7 +1357,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1383,7 +1385,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1411,7 +1413,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1439,7 +1441,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1467,7 +1469,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1495,7 +1497,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1523,7 +1525,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1551,7 +1553,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1579,7 +1581,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1607,7 +1609,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1635,7 +1637,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1663,7 +1665,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1691,7 +1693,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1719,7 +1721,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1747,7 +1749,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1775,7 +1777,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1803,7 +1805,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1831,7 +1833,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1859,7 +1861,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1887,7 +1889,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1915,7 +1917,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1943,7 +1945,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1971,7 +1973,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1999,7 +2001,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2027,7 +2029,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2055,7 +2057,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2083,7 +2085,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2111,7 +2113,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2139,7 +2141,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2167,7 +2169,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2195,7 +2197,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2223,7 +2225,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2251,7 +2253,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2279,7 +2281,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2307,7 +2309,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2335,7 +2337,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2363,7 +2365,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2391,7 +2393,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2419,7 +2421,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2447,7 +2449,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2475,7 +2477,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2503,7 +2505,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2531,7 +2533,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2559,7 +2561,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2587,7 +2589,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2615,7 +2617,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2643,7 +2645,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2671,7 +2673,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2699,7 +2701,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2727,7 +2729,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2755,7 +2757,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2783,7 +2785,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2811,7 +2813,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2839,7 +2841,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2867,7 +2869,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2895,7 +2897,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2923,7 +2925,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2951,7 +2953,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2979,7 +2981,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3007,7 +3009,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3035,7 +3037,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3063,7 +3065,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3091,7 +3093,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3119,7 +3121,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3147,7 +3149,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3175,7 +3177,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3203,7 +3205,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3231,7 +3233,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3259,7 +3261,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3287,7 +3289,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3315,7 +3317,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3343,7 +3345,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3371,7 +3373,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3399,7 +3401,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3427,7 +3429,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3455,7 +3457,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3483,7 +3485,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3511,7 +3513,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3539,7 +3541,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3567,7 +3569,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3595,7 +3597,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3623,7 +3625,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3651,7 +3653,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3679,7 +3681,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3707,7 +3709,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3735,7 +3737,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3763,7 +3765,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3791,7 +3793,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3819,7 +3821,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3847,7 +3849,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3875,7 +3877,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3903,7 +3905,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3931,7 +3933,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3959,7 +3961,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3987,7 +3989,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4015,7 +4017,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4043,7 +4045,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4071,7 +4073,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4099,7 +4101,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4127,7 +4129,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4155,7 +4157,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4183,7 +4185,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4211,7 +4213,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4239,7 +4241,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4267,7 +4269,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4295,7 +4297,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4323,7 +4325,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4351,7 +4353,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4379,7 +4381,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4407,7 +4409,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4435,7 +4437,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4463,7 +4465,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4491,7 +4493,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4519,7 +4521,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4547,7 +4549,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4575,7 +4577,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4603,7 +4605,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4631,7 +4633,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4659,7 +4661,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4687,7 +4689,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4715,7 +4717,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4743,7 +4745,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4771,7 +4773,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4799,7 +4801,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4827,7 +4829,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4855,7 +4857,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4883,7 +4885,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4911,7 +4913,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4939,7 +4941,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4967,7 +4969,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4995,7 +4997,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5023,7 +5025,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5051,7 +5053,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5079,7 +5081,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5107,7 +5109,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5135,7 +5137,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5163,7 +5165,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5191,7 +5193,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5219,7 +5221,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5247,7 +5249,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5275,7 +5277,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5303,7 +5305,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5331,7 +5333,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5359,7 +5361,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5387,7 +5389,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5415,7 +5417,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5443,7 +5445,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5471,7 +5473,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5499,7 +5501,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5527,7 +5529,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5555,7 +5557,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5583,7 +5585,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5611,7 +5613,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5639,7 +5641,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5667,7 +5669,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5695,7 +5697,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5723,7 +5725,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5751,7 +5753,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5779,7 +5781,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5807,7 +5809,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5835,7 +5837,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5863,7 +5865,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5891,7 +5893,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5919,7 +5921,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5947,7 +5949,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5975,7 +5977,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6003,7 +6005,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6031,7 +6033,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6059,7 +6061,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6087,7 +6089,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6115,7 +6117,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6143,7 +6145,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6171,7 +6173,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6199,7 +6201,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6227,7 +6229,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6255,7 +6257,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6283,7 +6285,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6311,7 +6313,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6339,7 +6341,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6367,7 +6369,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6395,7 +6397,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6423,7 +6425,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6451,7 +6453,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6479,7 +6481,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6507,7 +6509,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6535,7 +6537,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6563,7 +6565,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6591,7 +6593,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6619,7 +6621,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6647,7 +6649,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6675,7 +6677,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6703,7 +6705,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6731,7 +6733,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6759,7 +6761,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6787,7 +6789,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6815,7 +6817,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6843,7 +6845,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6871,7 +6873,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6899,7 +6901,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6927,7 +6929,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6955,7 +6957,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6983,7 +6985,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7011,7 +7013,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7039,7 +7041,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7067,7 +7069,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7095,7 +7097,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7123,7 +7125,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7151,7 +7153,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7179,7 +7181,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7207,7 +7209,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7235,7 +7237,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7263,7 +7265,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7291,7 +7293,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7319,7 +7321,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7347,7 +7349,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7375,7 +7377,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7403,7 +7405,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7431,7 +7433,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7459,7 +7461,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7487,7 +7489,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7515,7 +7517,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7543,7 +7545,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7571,7 +7573,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7599,7 +7601,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7627,7 +7629,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7655,7 +7657,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7683,7 +7685,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7711,7 +7713,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7739,7 +7741,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7767,7 +7769,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7795,7 +7797,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7823,7 +7825,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7851,7 +7853,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7879,7 +7881,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7907,7 +7909,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7935,7 +7937,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7963,7 +7965,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7991,7 +7993,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8019,7 +8021,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8047,7 +8049,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8075,7 +8077,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8103,7 +8105,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8131,7 +8133,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8159,7 +8161,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8187,7 +8189,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8215,7 +8217,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8243,7 +8245,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8271,7 +8273,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8299,7 +8301,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8327,7 +8329,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8355,7 +8357,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8383,7 +8385,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8411,7 +8413,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8439,7 +8441,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8467,7 +8469,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8495,7 +8497,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8523,7 +8525,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8551,7 +8553,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8579,7 +8581,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8607,7 +8609,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8635,7 +8637,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8663,7 +8665,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8691,7 +8693,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8719,7 +8721,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8747,7 +8749,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8775,7 +8777,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8803,7 +8805,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8831,7 +8833,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8859,7 +8861,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8887,7 +8889,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8915,7 +8917,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8943,7 +8945,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8971,7 +8973,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8999,7 +9001,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -9027,7 +9029,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -9055,7 +9057,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -9083,7 +9085,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -9111,7 +9113,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -9139,7 +9141,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -9167,7 +9169,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -9195,7 +9197,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -9223,7 +9225,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -9251,7 +9253,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -9279,7 +9281,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -9307,7 +9309,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -9335,7 +9337,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -9363,7 +9365,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -9391,7 +9393,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -9419,7 +9421,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9447,7 +9449,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9475,7 +9477,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9503,7 +9505,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9531,7 +9533,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9559,7 +9561,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9587,7 +9589,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9615,7 +9617,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9643,7 +9645,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9671,7 +9673,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9699,7 +9701,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9727,7 +9729,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9755,7 +9757,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9783,7 +9785,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9811,7 +9813,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9839,7 +9841,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9867,7 +9869,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9895,7 +9897,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9923,7 +9925,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9951,7 +9953,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9979,7 +9981,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -10007,7 +10009,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -10035,7 +10037,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -10063,7 +10065,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -10091,7 +10093,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -10119,7 +10121,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -10147,7 +10149,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -10175,7 +10177,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -10203,7 +10205,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -10231,7 +10233,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -10259,7 +10261,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -10287,7 +10289,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -10315,7 +10317,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -10343,7 +10345,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -10371,7 +10373,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -10399,7 +10401,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -10427,7 +10429,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -10455,7 +10457,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -10483,7 +10485,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -10511,7 +10513,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10539,7 +10541,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10567,7 +10569,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10595,7 +10597,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10623,7 +10625,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10651,7 +10653,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10679,7 +10681,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10707,7 +10709,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10735,7 +10737,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10763,7 +10765,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10791,7 +10793,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10819,7 +10821,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10847,7 +10849,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10875,7 +10877,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10903,7 +10905,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10931,7 +10933,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10959,7 +10961,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10987,7 +10989,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -11015,7 +11017,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -11043,7 +11045,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -11071,7 +11073,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -11099,7 +11101,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -11127,7 +11129,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -11155,7 +11157,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -11183,7 +11185,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -11211,7 +11213,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -11239,7 +11241,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -11267,7 +11269,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -11295,7 +11297,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -11323,7 +11325,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -11351,7 +11353,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -11379,7 +11381,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -11407,7 +11409,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -11435,7 +11437,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -11463,7 +11465,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -11491,7 +11493,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -11519,7 +11521,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -11547,7 +11549,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -11575,7 +11577,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -11603,7 +11605,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -11631,7 +11633,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11659,7 +11661,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11687,7 +11689,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11715,7 +11717,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11743,7 +11745,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11771,7 +11773,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11799,7 +11801,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11827,7 +11829,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11855,7 +11857,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11883,7 +11885,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11911,7 +11913,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11939,7 +11941,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11967,7 +11969,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11995,7 +11997,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -12023,7 +12025,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -12051,7 +12053,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -12079,7 +12081,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -12107,7 +12109,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -12135,7 +12137,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -12163,7 +12165,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -12191,7 +12193,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -12219,7 +12221,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -12247,7 +12249,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -12275,7 +12277,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -12303,7 +12305,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -12331,7 +12333,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -12359,7 +12361,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -12387,7 +12389,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -12415,7 +12417,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -12443,7 +12445,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -12471,7 +12473,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -12499,7 +12501,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -12527,7 +12529,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -12555,7 +12557,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -12583,7 +12585,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -12611,7 +12613,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -12639,7 +12641,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -12667,7 +12669,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -12695,7 +12697,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -12723,7 +12725,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -12751,7 +12753,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12779,7 +12781,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12807,7 +12809,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12835,7 +12837,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12863,7 +12865,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12891,7 +12893,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12919,7 +12921,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12947,7 +12949,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12975,7 +12977,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -13003,7 +13005,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -13031,7 +13033,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -13059,7 +13061,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -13087,7 +13089,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -13115,7 +13117,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -13143,7 +13145,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -13171,7 +13173,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -13199,7 +13201,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -13227,7 +13229,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -13255,7 +13257,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -13283,7 +13285,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -13311,7 +13313,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -13339,7 +13341,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -13367,7 +13369,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -13395,7 +13397,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -13423,7 +13425,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -13451,7 +13453,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -13479,7 +13481,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -13507,7 +13509,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -13535,7 +13537,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -13563,7 +13565,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -13591,7 +13593,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -13619,7 +13621,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -13647,7 +13649,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -13675,7 +13677,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -13703,7 +13705,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -13731,7 +13733,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -13759,7 +13761,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -13787,7 +13789,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -13815,7 +13817,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -13843,7 +13845,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13871,7 +13873,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13899,7 +13901,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13927,7 +13929,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13955,7 +13957,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -13983,7 +13985,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -14011,7 +14013,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -14039,7 +14041,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -14067,7 +14069,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -14095,7 +14097,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -14123,7 +14125,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -14151,7 +14153,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -14179,7 +14181,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -14207,7 +14209,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -14235,7 +14237,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -14263,7 +14265,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -14291,7 +14293,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -14319,7 +14321,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -14347,7 +14349,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -14375,7 +14377,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -14403,7 +14405,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -14431,7 +14433,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -14459,7 +14461,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -14487,7 +14489,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -14515,7 +14517,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -14543,7 +14545,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -14571,7 +14573,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -14599,7 +14601,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -14627,7 +14629,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -14655,7 +14657,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -14683,7 +14685,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -14711,7 +14713,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -14739,7 +14741,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -14767,7 +14769,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -14795,7 +14797,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -14823,7 +14825,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -14851,7 +14853,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -14879,7 +14881,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14907,7 +14909,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14935,7 +14937,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -14963,7 +14965,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -14991,7 +14993,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -15019,7 +15021,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -15047,7 +15049,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -15075,7 +15077,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -15103,7 +15105,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -15131,7 +15133,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -15159,7 +15161,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -15187,7 +15189,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -15215,7 +15217,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -15243,7 +15245,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -15271,7 +15273,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -15299,7 +15301,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -15327,7 +15329,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -15355,7 +15357,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -15383,7 +15385,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -15411,7 +15413,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -15439,7 +15441,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -15467,7 +15469,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -15495,7 +15497,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -15523,7 +15525,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -15551,7 +15553,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -15579,7 +15581,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -15607,7 +15609,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -15635,7 +15637,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -15663,7 +15665,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -15691,7 +15693,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -15719,7 +15721,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -15747,7 +15749,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -15775,7 +15777,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -15803,7 +15805,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -15831,7 +15833,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -15859,7 +15861,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -15887,7 +15889,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -15915,7 +15917,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -15943,7 +15945,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -15971,7 +15973,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -15999,7 +16001,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -16027,7 +16029,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -16055,7 +16057,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -16083,7 +16085,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -16111,7 +16113,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -16139,7 +16141,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -16167,7 +16169,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -16195,7 +16197,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -16223,7 +16225,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -16251,7 +16253,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -16279,7 +16281,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -16307,7 +16309,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -16335,7 +16337,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -16363,7 +16365,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -16391,7 +16393,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -16419,7 +16421,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -16447,7 +16449,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -16475,7 +16477,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -16503,7 +16505,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -16531,7 +16533,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -16559,7 +16561,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -16587,7 +16589,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -16615,7 +16617,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -16643,7 +16645,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -16671,7 +16673,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -16699,7 +16701,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -16727,7 +16729,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -16755,7 +16757,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -16783,7 +16785,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -16811,7 +16813,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -16839,7 +16841,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -16867,7 +16869,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -16895,7 +16897,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -16923,7 +16925,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -16951,7 +16953,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -16979,7 +16981,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -17007,7 +17009,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -17035,7 +17037,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -17063,7 +17065,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -17091,7 +17093,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -17119,7 +17121,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -17147,7 +17149,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -17175,7 +17177,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -17203,7 +17205,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -17231,7 +17233,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -17259,7 +17261,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -17287,7 +17289,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -17315,7 +17317,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -17343,7 +17345,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -17371,7 +17373,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -17399,7 +17401,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -17427,7 +17429,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -17455,7 +17457,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -17483,7 +17485,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -17511,7 +17513,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -17539,7 +17541,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -17567,7 +17569,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -17595,7 +17597,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -17623,7 +17625,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -17651,7 +17653,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -17679,7 +17681,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -17707,7 +17709,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -17735,7 +17737,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -17763,7 +17765,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -17791,7 +17793,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -17819,7 +17821,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -17847,7 +17849,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -17875,7 +17877,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -17903,7 +17905,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -17931,7 +17933,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -17959,7 +17961,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -17987,7 +17989,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -18015,7 +18017,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -18043,7 +18045,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -18071,7 +18073,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -18099,7 +18101,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -18127,7 +18129,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -18155,7 +18157,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -18183,7 +18185,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -18211,7 +18213,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -18239,7 +18241,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -18267,7 +18269,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -18295,7 +18297,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -18323,7 +18325,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -18351,7 +18353,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -18379,7 +18381,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -18407,7 +18409,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -18435,7 +18437,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -18463,7 +18465,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -18491,7 +18493,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -18519,7 +18521,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -18547,7 +18549,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -18575,7 +18577,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -18603,7 +18605,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -18631,7 +18633,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -18659,7 +18661,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -18687,7 +18689,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -18715,7 +18717,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -18743,7 +18745,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -18771,7 +18773,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -18799,7 +18801,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -18827,7 +18829,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -18855,7 +18857,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -18883,7 +18885,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -18911,7 +18913,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -18939,7 +18941,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -18967,7 +18969,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -18995,7 +18997,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -19023,7 +19025,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -19051,7 +19053,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -19079,7 +19081,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -19107,7 +19109,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -19135,7 +19137,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -19163,7 +19165,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -19191,7 +19193,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -19219,7 +19221,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -19247,7 +19249,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -19275,7 +19277,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -19303,7 +19305,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -19331,7 +19333,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -19359,7 +19361,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -19387,7 +19389,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -19415,7 +19417,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -19443,7 +19445,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -19471,7 +19473,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -19499,7 +19501,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -19527,7 +19529,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -19555,7 +19557,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -19583,7 +19585,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -19611,7 +19613,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -19639,7 +19641,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -19667,7 +19669,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -19695,7 +19697,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -19723,7 +19725,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -19751,7 +19753,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -19779,7 +19781,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -19807,7 +19809,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -19835,7 +19837,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -19863,7 +19865,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -19891,7 +19893,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -19919,7 +19921,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -19947,7 +19949,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -19975,7 +19977,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -20003,7 +20005,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -20031,7 +20033,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -20059,7 +20061,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -20087,7 +20089,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -20115,7 +20117,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -20143,7 +20145,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -20171,7 +20173,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -20199,7 +20201,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -20227,7 +20229,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -20255,7 +20257,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -20283,7 +20285,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -20311,7 +20313,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -20339,7 +20341,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -20367,7 +20369,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -20395,7 +20397,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -20423,7 +20425,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -20451,7 +20453,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -20479,7 +20481,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -20507,7 +20509,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -20535,7 +20537,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -20563,7 +20565,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -20591,7 +20593,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -20619,7 +20621,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -20647,7 +20649,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -20675,7 +20677,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -20703,7 +20705,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -20731,7 +20733,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -20759,7 +20761,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -20787,7 +20789,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -20815,7 +20817,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -20843,7 +20845,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -20871,7 +20873,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -20899,7 +20901,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -20927,7 +20929,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -20955,7 +20957,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -20983,7 +20985,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -21011,7 +21013,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -21039,7 +21041,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -21067,7 +21069,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -21095,7 +21097,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -21123,7 +21125,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -21151,7 +21153,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -21179,7 +21181,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -21207,7 +21209,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -21235,7 +21237,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -21263,7 +21265,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -21291,7 +21293,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -21319,7 +21321,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -21347,7 +21349,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -21375,7 +21377,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -21403,7 +21405,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -21431,7 +21433,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -21459,7 +21461,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -21487,7 +21489,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -21515,7 +21517,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -21543,7 +21545,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -21571,7 +21573,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -21599,7 +21601,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -21627,7 +21629,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -21655,7 +21657,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -21683,7 +21685,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -21711,7 +21713,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -21739,7 +21741,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -21767,7 +21769,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -21795,7 +21797,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -21823,7 +21825,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -21851,7 +21853,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -21879,7 +21881,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -21907,7 +21909,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -21935,7 +21937,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -21963,7 +21965,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -21991,7 +21993,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -22019,7 +22021,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -22047,7 +22049,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -22075,7 +22077,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -22103,7 +22105,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -22131,7 +22133,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -22159,7 +22161,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -22187,7 +22189,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -22215,7 +22217,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -22243,7 +22245,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -22271,7 +22273,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -22299,7 +22301,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -22327,7 +22329,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -22355,7 +22357,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -22383,7 +22385,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -22411,7 +22413,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -22439,7 +22441,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -22467,7 +22469,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -22495,7 +22497,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -22523,7 +22525,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -22551,7 +22553,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -22579,7 +22581,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -22607,7 +22609,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -22635,7 +22637,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -22663,7 +22665,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -22691,7 +22693,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -22719,7 +22721,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -22747,7 +22749,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -22775,7 +22777,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -22803,7 +22805,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -22831,7 +22833,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -22859,7 +22861,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -22887,7 +22889,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -22915,7 +22917,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -22943,7 +22945,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -22971,7 +22973,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -22999,7 +23001,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -23027,7 +23029,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -23055,7 +23057,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -23083,7 +23085,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -23111,7 +23113,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -23139,7 +23141,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -23167,7 +23169,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -23195,7 +23197,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -23223,7 +23225,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -23251,7 +23253,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -23279,7 +23281,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -23307,7 +23309,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -23335,7 +23337,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -23363,7 +23365,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -23391,7 +23393,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -23419,7 +23421,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -23447,7 +23449,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -23475,7 +23477,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -23503,7 +23505,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -23531,7 +23533,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -23559,7 +23561,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -23587,7 +23589,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -23615,7 +23617,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -23643,7 +23645,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -23671,7 +23673,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -23699,7 +23701,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -23727,7 +23729,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -23755,7 +23757,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -23783,7 +23785,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -23811,7 +23813,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -23839,7 +23841,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -23867,7 +23869,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -23895,7 +23897,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -23923,7 +23925,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -23951,7 +23953,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -23979,7 +23981,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -24007,7 +24009,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -24035,7 +24037,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -24063,7 +24065,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -24091,7 +24093,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -24119,7 +24121,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -24147,7 +24149,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -24175,7 +24177,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -24203,7 +24205,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -24231,7 +24233,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -24259,7 +24261,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -24287,7 +24289,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -24315,7 +24317,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -24343,7 +24345,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -24371,7 +24373,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -24399,7 +24401,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -24427,7 +24429,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -24455,7 +24457,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -24483,7 +24485,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -24511,7 +24513,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -24539,7 +24541,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -24567,7 +24569,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -24595,7 +24597,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -24623,7 +24625,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -24651,7 +24653,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -24679,7 +24681,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -24707,7 +24709,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -24735,7 +24737,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -24763,7 +24765,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -24791,7 +24793,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -24819,7 +24821,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -24847,7 +24849,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -24875,7 +24877,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -24903,7 +24905,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -24931,7 +24933,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -24959,7 +24961,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -24987,7 +24989,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -25015,7 +25017,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -25043,7 +25045,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -25071,7 +25073,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -25099,7 +25101,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -25127,7 +25129,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -25155,7 +25157,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -25183,7 +25185,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -25211,7 +25213,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -25239,7 +25241,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -25267,7 +25269,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -25295,7 +25297,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -25323,7 +25325,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -25351,7 +25353,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -25379,7 +25381,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -25407,7 +25409,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -25435,7 +25437,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -25463,7 +25465,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -25491,7 +25493,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -25519,7 +25521,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -25547,7 +25549,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -25575,7 +25577,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -25603,7 +25605,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -25631,7 +25633,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -25659,7 +25661,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -25687,7 +25689,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -25715,7 +25717,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -25743,7 +25745,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -25771,7 +25773,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -25799,7 +25801,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -25827,7 +25829,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -25855,7 +25857,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -25883,7 +25885,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -25911,7 +25913,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -25939,7 +25941,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -25967,7 +25969,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -25995,7 +25997,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -26023,7 +26025,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -26051,7 +26053,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -26079,7 +26081,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -26107,7 +26109,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -26135,7 +26137,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -26163,7 +26165,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -26191,7 +26193,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -26219,7 +26221,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -26247,7 +26249,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -26275,7 +26277,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -26303,7 +26305,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -26331,7 +26333,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -26359,7 +26361,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -26387,7 +26389,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -26415,7 +26417,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -26443,7 +26445,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -26471,7 +26473,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -26499,7 +26501,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -26527,7 +26529,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -26555,7 +26557,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -26583,7 +26585,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -26611,7 +26613,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -26639,7 +26641,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -26667,7 +26669,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -26695,7 +26697,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -26723,7 +26725,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -26751,7 +26753,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -26779,7 +26781,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -26807,7 +26809,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -26835,7 +26837,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -26863,7 +26865,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -26891,7 +26893,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -26919,7 +26921,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -26947,7 +26949,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -26975,7 +26977,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -27003,7 +27005,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -27031,7 +27033,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -27059,7 +27061,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -27087,7 +27089,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -27115,7 +27117,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -27143,7 +27145,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -27171,7 +27173,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -27199,7 +27201,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -27227,7 +27229,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -27255,7 +27257,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -27283,7 +27285,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -27311,7 +27313,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -27339,7 +27341,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -27367,7 +27369,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -27395,7 +27397,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -27423,7 +27425,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -27451,7 +27453,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -27479,7 +27481,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -27507,7 +27509,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -27535,7 +27537,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -27563,7 +27565,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -27591,7 +27593,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -27619,7 +27621,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -27647,7 +27649,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -27675,7 +27677,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -27703,7 +27705,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -27731,7 +27733,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -27759,7 +27761,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -27787,7 +27789,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -27815,7 +27817,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -27843,7 +27845,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -27871,7 +27873,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -27899,7 +27901,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -27927,7 +27929,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -27955,7 +27957,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -27983,7 +27985,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -28011,7 +28013,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -28039,7 +28041,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -28067,7 +28069,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -28095,7 +28097,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -28123,7 +28125,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -28151,7 +28153,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -28179,7 +28181,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -28207,7 +28209,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -28235,7 +28237,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -28263,7 +28265,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -28291,7 +28293,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -28319,7 +28321,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -28347,7 +28349,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -28375,7 +28377,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -28403,7 +28405,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -28431,7 +28433,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -28459,7 +28461,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -28487,7 +28489,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -28515,7 +28517,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -28543,7 +28545,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -28571,7 +28573,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -28599,7 +28601,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -28627,7 +28629,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -28655,7 +28657,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -28683,7 +28685,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -28711,7 +28713,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -28739,7 +28741,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -28767,7 +28769,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -28795,7 +28797,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -28823,7 +28825,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -28851,7 +28853,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -28879,7 +28881,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -28907,7 +28909,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -28935,7 +28937,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -28970,18 +28972,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29202,6 +29204,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -29214,14 +29224,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7275DC01-7B2F-4396-A35C-C7F6F85D6F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A7A4C-A952-486E-8551-E9832FE204F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,12 +358,6 @@
     <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q1_2024_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q1_2024_Expenditures__c</t>
-  </si>
-  <si>
     <t>Project_Start_Date__c</t>
   </si>
   <si>
@@ -384,6 +378,12 @@
     <t>REQUIRED if the project has completed. 
 REQUIRED if you selected "Completed" for the "Status to Completion" question. 
 End date  Valid Date - (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Q2_2024_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q2_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -916,10 +916,10 @@
         <v>69</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>6</v>
@@ -931,10 +931,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>30</v>
@@ -1076,10 +1076,10 @@
         <v>70</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>14</v>
@@ -1156,10 +1156,10 @@
         <v>72</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>60</v>
@@ -31008,15 +31008,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -31233,6 +31224,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -31240,14 +31240,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31262,6 +31254,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 2 2024 Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9A7A4C-A952-486E-8551-E9832FE204F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DA9A7A4C-A952-486E-8551-E9832FE204F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0002B0B9-87AC-4F7F-A260-70A57F7E5080}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q2_2024_Obligations__c</t>
+    <t>Q3_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q2_2024_Expenditures__c</t>
+    <t>Q3_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31008,6 +31008,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -31224,22 +31239,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31256,29 +31281,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project32BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 2 2024 Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 4 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DA9A7A4C-A952-486E-8551-E9832FE204F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0002B0B9-87AC-4F7F-A260-70A57F7E5080}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C2A6A9-E0B8-4EDF-B475-A2B0119E6F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,10 +380,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q3_2024_Obligations__c</t>
+    <t>Q4_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2024_Expenditures__c</t>
+    <t>Q4_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31008,21 +31008,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -31239,32 +31224,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31281,4 +31256,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>